--- a/Mile.NtCrt.References/Lists/NtDllCrtSymbolsList.xlsx
+++ b/Mile.NtCrt.References/Lists/NtDllCrtSymbolsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10B0D31-849D-4401-B28F-15CD048E10A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10E020-2F37-4030-9A4D-68D012893CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,9 +934,6 @@
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\heap\ntdlllib\objfre\i386\nothrow.obj</t>
   </si>
   <si>
-    <t>nothrow@std@@3Unothrow_t@1@B</t>
-  </si>
-  <si>
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\heap\ntdlllib\objfre\i386\nothrowp.obj</t>
   </si>
   <si>
@@ -1039,9 +1036,6 @@
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\misc\ntdlllib\objfre\i386\invargn.obj</t>
   </si>
   <si>
-    <t>?_C@_0DB@OPDBMGNG@Invalid?5parameter?5passed?5to?5C?5r@</t>
-  </si>
-  <si>
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\misc\ntdlllib\objfre\i386\sehprolg4.obj</t>
   </si>
   <si>
@@ -1063,15 +1057,6 @@
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\misc\ntdlllib\objfre\i386\thread_safe_statics.obj</t>
   </si>
   <si>
-    <t>?_C@_13CGOKJPIL@?$AA?1@</t>
-  </si>
-  <si>
-    <t>?_C@_13FPGAJAPJ@?$AA?2@</t>
-  </si>
-  <si>
-    <t>?_C@_15MNCACJLI@?$AA?2?$AA?1@</t>
-  </si>
-  <si>
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\startup\mt\objfre\i386\alloca16.obj</t>
   </si>
   <si>
@@ -1151,9 +1136,6 @@
   </si>
   <si>
     <t>_except_handler3</t>
-  </si>
-  <si>
-    <t>_seh_longjmp_unwind@4</t>
   </si>
   <si>
     <t>d:\os\obj\x86fre\minkernel\crts\libw32\lib\exsup_user\..\..\..\crtw32\misc\ntdlllib\objfre\i386\jbcxrval.obj</t>
@@ -1228,6 +1210,30 @@
   </si>
   <si>
     <t>d:\os\obj\x86fre\minkernel\crts\crtw32\misc\dll\objfre\i386\guard_support.obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??_C@_0DB@OPDBMGNG@Invalid?5parameter?5passed?5to?5C?5r@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??_C@_13CGOKJPIL@?$AA?1@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??_C@_13FPGAJAPJ@?$AA?2@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??_C@_15MNCACJLI@?$AA?2?$AA?1@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?nothrow@std@@3Unothrow_t@1@B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_seh_longjmp_unwind@4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,8 +1265,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1284,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,10 +1309,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,9 +1323,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1578,7 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="D371" sqref="D371"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1612,87 +1645,87 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>220</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>221</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1705,139 +1738,139 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>295</v>
       </c>
     </row>
@@ -1847,128 +1880,128 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1999,2272 +2032,2272 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="5" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4283,17 +4316,17 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D212" t="s">
-        <v>301</v>
+      <c r="D212" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,21 +4340,21 @@
         <v>271</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D214" t="s">
-        <v>301</v>
+      <c r="D214" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,23 +4362,23 @@
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" t="s">
-        <v>304</v>
+      <c r="D216" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" t="s">
-        <v>305</v>
+      <c r="D217" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4358,7 +4391,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="B219" t="s">
+      <c r="B219" s="6" t="s">
         <v>228</v>
       </c>
       <c r="C219" s="3"/>
@@ -4366,7 +4399,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="B220" t="s">
+      <c r="B220" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C220" s="3"/>
@@ -4401,22 +4434,22 @@
       <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D224" s="3"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D225" s="3"/>
@@ -4428,13 +4461,13 @@
       <c r="D226" s="3"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+      <c r="B227" s="6" t="s">
         <v>234</v>
       </c>
       <c r="D227" s="3"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
+      <c r="B228" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D228" s="3"/>
@@ -4476,7 +4509,7 @@
       <c r="D234" s="3"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
+      <c r="B235" s="6" t="s">
         <v>242</v>
       </c>
       <c r="D235" s="3"/>
@@ -4506,13 +4539,13 @@
       <c r="D238" s="3"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="6" t="s">
         <v>192</v>
       </c>
       <c r="D239" s="3"/>
@@ -4524,7 +4557,7 @@
       <c r="D240" s="3"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+      <c r="B241" s="6" t="s">
         <v>247</v>
       </c>
       <c r="D241" s="3"/>
@@ -4540,127 +4573,127 @@
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
-      <c r="D244" t="s">
-        <v>306</v>
+      <c r="D244" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" t="s">
-        <v>307</v>
+      <c r="D245" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" t="s">
-        <v>308</v>
+      <c r="D246" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
-      <c r="D247" t="s">
-        <v>309</v>
+      <c r="D247" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" t="s">
-        <v>310</v>
+      <c r="D248" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
-      <c r="D249" t="s">
-        <v>311</v>
+      <c r="D249" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
-      <c r="D250" t="s">
-        <v>312</v>
+      <c r="D250" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
-      <c r="D251" t="s">
-        <v>313</v>
+      <c r="D251" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
-      <c r="D252" t="s">
-        <v>314</v>
+      <c r="D252" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
-      <c r="D253" t="s">
-        <v>315</v>
+      <c r="D253" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
-      <c r="D254" t="s">
-        <v>316</v>
+      <c r="D254" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
-      <c r="D255" t="s">
-        <v>317</v>
+      <c r="D255" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" t="s">
-        <v>318</v>
+      <c r="D256" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" t="s">
-        <v>319</v>
+      <c r="D257" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
-      <c r="D258" t="s">
-        <v>320</v>
+      <c r="D258" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,15 +4701,15 @@
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
-      <c r="D260" t="s">
-        <v>322</v>
+      <c r="D260" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,15 +4717,15 @@
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
-      <c r="D262" t="s">
-        <v>324</v>
+      <c r="D262" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4700,15 +4733,15 @@
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
-      <c r="D264" t="s">
-        <v>326</v>
+      <c r="D264" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,15 +4749,15 @@
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
-      <c r="D266" t="s">
-        <v>328</v>
+      <c r="D266" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,55 +4765,55 @@
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
-      <c r="D268" t="s">
-        <v>330</v>
+      <c r="D268" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" t="s">
-        <v>331</v>
+      <c r="D269" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" t="s">
-        <v>332</v>
+      <c r="D270" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
-      <c r="D271" t="s">
-        <v>333</v>
+      <c r="D271" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
-      <c r="D272" t="s">
-        <v>334</v>
+      <c r="D272" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
-      <c r="D273" s="4" t="s">
-        <v>397</v>
+      <c r="D273" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,20 +4827,20 @@
         <v>274</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4821,8 +4854,8 @@
       <c r="C276" t="s">
         <v>195</v>
       </c>
-      <c r="D276" t="s">
-        <v>336</v>
+      <c r="D276" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,23 +4908,23 @@
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
-      <c r="D287" t="s">
-        <v>338</v>
+      <c r="D287" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
-      <c r="D288" t="s">
-        <v>339</v>
+      <c r="D288" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,23 +4932,23 @@
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
-      <c r="D290" t="s">
-        <v>341</v>
+      <c r="D290" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
-      <c r="D291" t="s">
-        <v>342</v>
+      <c r="D291" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,135 +4959,135 @@
         <v>259</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5068,8 +5101,8 @@
       <c r="C302" t="s">
         <v>206</v>
       </c>
-      <c r="D302" t="s">
-        <v>344</v>
+      <c r="D302" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,8 +5115,8 @@
       <c r="C303" t="s">
         <v>207</v>
       </c>
-      <c r="D303" t="s">
-        <v>345</v>
+      <c r="D303" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,8 +5129,8 @@
       <c r="C304" t="s">
         <v>208</v>
       </c>
-      <c r="D304" t="s">
-        <v>346</v>
+      <c r="D304" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,23 +5220,23 @@
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
-      <c r="D317" t="s">
-        <v>348</v>
+      <c r="D317" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" t="s">
-        <v>349</v>
+      <c r="D318" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,15 +5244,15 @@
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
-      <c r="D320" t="s">
-        <v>351</v>
+      <c r="D320" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,76 +5266,76 @@
         <v>275</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5311,15 +5344,15 @@
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
-      <c r="D328" t="s">
-        <v>354</v>
+      <c r="D328" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,23 +5360,23 @@
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
-      <c r="D330" t="s">
-        <v>356</v>
+      <c r="D330" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
-      <c r="D331" t="s">
-        <v>357</v>
+      <c r="D331" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,95 +5384,95 @@
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
-      <c r="D333" t="s">
-        <v>359</v>
+      <c r="D333" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
-      <c r="D334" t="s">
-        <v>360</v>
+      <c r="D334" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
-      <c r="D335" t="s">
-        <v>361</v>
+      <c r="D335" s="6" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
-      <c r="D336" t="s">
-        <v>362</v>
+      <c r="D336" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
-      <c r="D337" t="s">
-        <v>363</v>
+      <c r="D337" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
-      <c r="D338" t="s">
-        <v>364</v>
+      <c r="D338" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
-      <c r="D339" t="s">
-        <v>365</v>
+      <c r="D339" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
-      <c r="D340" t="s">
-        <v>366</v>
+      <c r="D340" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
-      <c r="D341" t="s">
-        <v>367</v>
+      <c r="D341" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
-      <c r="D342" t="s">
-        <v>368</v>
+      <c r="D342" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
-      <c r="D343" t="s">
-        <v>369</v>
+      <c r="D343" s="6" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,15 +5480,15 @@
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
-      <c r="D345" t="s">
-        <v>371</v>
+      <c r="D345" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,23 +5496,23 @@
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
-      <c r="D347" t="s">
-        <v>373</v>
+      <c r="D347" s="6" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
-      <c r="D348" t="s">
-        <v>374</v>
+      <c r="D348" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,47 +5520,47 @@
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
-      <c r="D350" t="s">
-        <v>376</v>
+      <c r="D350" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
-      <c r="D351" t="s">
-        <v>377</v>
+      <c r="D351" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
-      <c r="D352" t="s">
-        <v>378</v>
+      <c r="D352" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
-      <c r="D353" t="s">
-        <v>379</v>
+      <c r="D353" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
-      <c r="D354" t="s">
-        <v>380</v>
+      <c r="D354" s="6" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,7 +5568,7 @@
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,15 +5576,15 @@
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
-      <c r="D357" t="s">
-        <v>383</v>
+      <c r="D357" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,14 +5592,14 @@
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
-      <c r="D359" t="s">
+      <c r="D359" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5575,15 +5608,15 @@
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
-      <c r="D361" t="s">
-        <v>386</v>
+      <c r="D361" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5591,14 +5624,14 @@
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
-      <c r="D363" t="s">
+      <c r="D363" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5607,15 +5640,15 @@
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
-      <c r="D365" t="s">
-        <v>389</v>
+      <c r="D365" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,23 +5656,23 @@
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
-      <c r="D367" t="s">
-        <v>391</v>
+      <c r="D367" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
-      <c r="D368" t="s">
-        <v>392</v>
+      <c r="D368" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,20 +5686,20 @@
         <v>276</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5675,15 +5708,15 @@
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
-      <c r="D372" t="s">
-        <v>395</v>
+      <c r="D372" s="6" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5691,6 +5724,9 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D348" r:id="rId1" xr:uid="{0F3FF3E4-BEF6-45F8-9FF7-84563566C696}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>